--- a/tensorflow/02-1-simplernetwork-matmul.xlsx
+++ b/tensorflow/02-1-simplernetwork-matmul.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.200\remote\repos\717005-Fall17\tensorflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>matmul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>×</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>＝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,6 +118,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>494595</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="1190625"/>
+          <a:ext cx="5638095" cy="790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,73 +429,79 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>-0.86436378999999997</v>
       </c>
-      <c r="B2">
+      <c r="F2">
         <v>-0.27789730000000001</v>
       </c>
-      <c r="C2">
+      <c r="G2">
         <v>-0.65328878000000001</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
       <c r="I2">
-        <f>A2*$E$2+A3*$F$2+A4*$G$2</f>
+        <f>E2*$A$2+E3*$B$2+E4*$C$2</f>
         <v>-0.2591386</v>
       </c>
       <c r="J2">
-        <f>B2*$E$2+B3*$F$2+B4*$G$2</f>
+        <f>F2*$A$2+F3*$B$2+F4*$C$2</f>
         <v>-2.3596446000000002</v>
       </c>
       <c r="K2">
-        <f>C2*$E$2+C3*$F$2+C4*$G$2</f>
+        <f>G2*$A$2+G3*$B$2+G4*$C$2</f>
         <v>6.4109553800000008</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="E3">
         <v>-0.45467943</v>
       </c>
-      <c r="B3">
+      <c r="F3">
         <v>-0.63485997999999999</v>
       </c>
-      <c r="C3">
+      <c r="G3">
         <v>1.9650834800000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="E4">
         <v>0.50486134999999999</v>
       </c>
-      <c r="B4">
+      <c r="F4">
         <v>-0.27067577999999998</v>
       </c>
-      <c r="C4">
+      <c r="G4">
         <v>1.0446924</v>
       </c>
     </row>
@@ -452,5 +509,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>